--- a/LR_selected_DB.xlsx
+++ b/LR_selected_DB.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/travail/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/travail/Github_Desktop/CellComm_ccRCC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26254603-E818-7843-BA36-36A7902B18D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14D350A2-203C-F54B-B1AE-D956E73F07CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8820" yWindow="500" windowWidth="39840" windowHeight="16500" xr2:uid="{0432BF41-168B-5947-9C12-52CCE5132BBA}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16500" xr2:uid="{0432BF41-168B-5947-9C12-52CCE5132BBA}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="122">
   <si>
     <t>ANG</t>
   </si>
@@ -185,9 +185,6 @@
     <t>SPINK1 / EGFR</t>
   </si>
   <si>
-    <t xml:space="preserve"> EGFR</t>
-  </si>
-  <si>
     <t>SPINK1</t>
   </si>
   <si>
@@ -318,6 +315,93 @@
   </si>
   <si>
     <t>SPP1 / ITGA5 + ITGB1</t>
+  </si>
+  <si>
+    <t> EGFR</t>
+  </si>
+  <si>
+    <t>SLPI / PLSCR4</t>
+  </si>
+  <si>
+    <t>SLPI</t>
+  </si>
+  <si>
+    <t>PLSCR4</t>
+  </si>
+  <si>
+    <t>SLPI / PLSCR1</t>
+  </si>
+  <si>
+    <t>PLSCR1</t>
+  </si>
+  <si>
+    <t>COL8A1 / DDR1</t>
+  </si>
+  <si>
+    <t>COL8A1</t>
+  </si>
+  <si>
+    <t>DDR1</t>
+  </si>
+  <si>
+    <t>COL6A3 / DDR1</t>
+  </si>
+  <si>
+    <t>COL6A3</t>
+  </si>
+  <si>
+    <t>COL6A2 / DDR1</t>
+  </si>
+  <si>
+    <t>COL6A2</t>
+  </si>
+  <si>
+    <t>COL6A1 / DDR1</t>
+  </si>
+  <si>
+    <t>COL6A1</t>
+  </si>
+  <si>
+    <t>COL5A3 / DDR1</t>
+  </si>
+  <si>
+    <t>COL5A3</t>
+  </si>
+  <si>
+    <t>COL5A2 / DDR1</t>
+  </si>
+  <si>
+    <t>COL5A2</t>
+  </si>
+  <si>
+    <t>COL4A2 / DDR1</t>
+  </si>
+  <si>
+    <t>COL4A2</t>
+  </si>
+  <si>
+    <t>COL4A1 / DDR1</t>
+  </si>
+  <si>
+    <t>COL4A1</t>
+  </si>
+  <si>
+    <t>COL3A1 / DDR1</t>
+  </si>
+  <si>
+    <t>COL3A1</t>
+  </si>
+  <si>
+    <t>COL1A2 / DDR1</t>
+  </si>
+  <si>
+    <t>COL1A2</t>
+  </si>
+  <si>
+    <t>COL1A1 / DDR1</t>
+  </si>
+  <si>
+    <t>COL1A1</t>
   </si>
 </sst>
 </file>
@@ -685,10 +769,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5299122F-2C6B-374C-95BE-1A10B427421D}">
-  <dimension ref="A1:D38"/>
+  <dimension ref="A1:D51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection sqref="A1:D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -699,21 +783,21 @@
   <sheetData>
     <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>57</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
@@ -724,7 +808,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B3" t="s">
         <v>0</v>
@@ -735,7 +819,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
@@ -746,7 +830,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
@@ -760,7 +844,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
@@ -774,7 +858,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B7" t="s">
         <v>9</v>
@@ -785,7 +869,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
@@ -796,7 +880,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B9" t="s">
         <v>12</v>
@@ -807,7 +891,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B10" t="s">
         <v>14</v>
@@ -821,7 +905,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B11" t="s">
         <v>14</v>
@@ -832,7 +916,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B12" t="s">
         <v>14</v>
@@ -843,7 +927,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B13" t="s">
         <v>14</v>
@@ -854,7 +938,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B14" t="s">
         <v>14</v>
@@ -865,13 +949,13 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D15" t="s">
         <v>7</v>
@@ -879,18 +963,18 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" t="s">
         <v>53</v>
-      </c>
-      <c r="C16" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B17" t="s">
         <v>19</v>
@@ -901,7 +985,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B18" t="s">
         <v>21</v>
@@ -912,7 +996,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B19" t="s">
         <v>23</v>
@@ -923,7 +1007,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B20" t="s">
         <v>25</v>
@@ -934,7 +1018,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B21" t="s">
         <v>25</v>
@@ -948,7 +1032,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B22" t="s">
         <v>25</v>
@@ -962,7 +1046,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B23" t="s">
         <v>25</v>
@@ -976,7 +1060,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B24" t="s">
         <v>25</v>
@@ -990,7 +1074,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B25" t="s">
         <v>25</v>
@@ -1004,7 +1088,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B26" t="s">
         <v>25</v>
@@ -1018,7 +1102,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B27" t="s">
         <v>33</v>
@@ -1029,7 +1113,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B28" t="s">
         <v>33</v>
@@ -1040,7 +1124,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B29" t="s">
         <v>35</v>
@@ -1051,7 +1135,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B30" t="s">
         <v>37</v>
@@ -1062,7 +1146,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B31" t="s">
         <v>38</v>
@@ -1073,7 +1157,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B32" t="s">
         <v>39</v>
@@ -1084,7 +1168,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B33" t="s">
         <v>40</v>
@@ -1095,7 +1179,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B34" t="s">
         <v>41</v>
@@ -1106,7 +1190,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B35" t="s">
         <v>43</v>
@@ -1117,7 +1201,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B36" t="s">
         <v>44</v>
@@ -1128,7 +1212,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B37" t="s">
         <v>46</v>
@@ -1142,10 +1226,153 @@
         <v>48</v>
       </c>
       <c r="B38" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C38" t="s">
-        <v>49</v>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>94</v>
+      </c>
+      <c r="B39" t="s">
+        <v>95</v>
+      </c>
+      <c r="C39" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>97</v>
+      </c>
+      <c r="B40" t="s">
+        <v>95</v>
+      </c>
+      <c r="C40" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>99</v>
+      </c>
+      <c r="B41" t="s">
+        <v>100</v>
+      </c>
+      <c r="C41" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>102</v>
+      </c>
+      <c r="B42" t="s">
+        <v>103</v>
+      </c>
+      <c r="C42" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>104</v>
+      </c>
+      <c r="B43" t="s">
+        <v>105</v>
+      </c>
+      <c r="C43" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>106</v>
+      </c>
+      <c r="B44" t="s">
+        <v>107</v>
+      </c>
+      <c r="C44" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>108</v>
+      </c>
+      <c r="B45" t="s">
+        <v>109</v>
+      </c>
+      <c r="C45" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>110</v>
+      </c>
+      <c r="B46" t="s">
+        <v>111</v>
+      </c>
+      <c r="C46" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>112</v>
+      </c>
+      <c r="B47" t="s">
+        <v>113</v>
+      </c>
+      <c r="C47" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>114</v>
+      </c>
+      <c r="B48" t="s">
+        <v>115</v>
+      </c>
+      <c r="C48" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>116</v>
+      </c>
+      <c r="B49" t="s">
+        <v>117</v>
+      </c>
+      <c r="C49" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>118</v>
+      </c>
+      <c r="B50" t="s">
+        <v>119</v>
+      </c>
+      <c r="C50" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>120</v>
+      </c>
+      <c r="B51" t="s">
+        <v>121</v>
+      </c>
+      <c r="C51" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>
